--- a/aCorrer/Metricas.xlsx
+++ b/aCorrer/Metricas.xlsx
@@ -129,7 +129,7 @@
     <t>20 min</t>
   </si>
   <si>
-    <t>20min</t>
+    <t>30min</t>
   </si>
 </sst>
 </file>
@@ -1127,13 +1127,13 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333037E-3</c:v>
+                  <c:v>4.1666666666666519E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.6388888888888795E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666741E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1669,14 +1669,14 @@
         <v>34</v>
       </c>
       <c r="C5" s="2">
-        <v>0.39305555555555555</v>
+        <v>0.61041666666666672</v>
       </c>
       <c r="D5" s="2">
-        <v>0.40138888888888885</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E5" s="52">
         <f>IFERROR(IF(OR(ISBLANK(C5),ISBLANK(D5)),"Completar",IF(D5&gt;=C5,D5-C5,"Error")),"Error")</f>
-        <v>8.3333333333333037E-3</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -1759,12 +1759,14 @@
         <v>36</v>
       </c>
       <c r="C9" s="2">
-        <v>0.40138888888888885</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="52" t="str">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="E9" s="52">
         <f>IFERROR(IF(OR(ISBLANK(C9),ISBLANK(D9)),"Completar",IF(D9&gt;=C9,D9-C9,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>2.6388888888888795E-2</v>
       </c>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
@@ -1846,11 +1848,15 @@
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="52" t="str">
+      <c r="C13" s="2">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="E13" s="52">
         <f>IFERROR(IF(OR(ISBLANK(C13),ISBLANK(D13)),"Completar",IF(D13&gt;=C13,D13-C13,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
@@ -2425,11 +2431,11 @@
       <c r="D37" s="72"/>
       <c r="E37" s="57">
         <f>E5</f>
-        <v>8.3333333333333037E-3</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="F37" s="58">
         <f>IF(E37="Completar",E37,IFERROR(E37/$E$43,"Error"))</f>
-        <v>1</v>
+        <v>5.7692307692307515E-2</v>
       </c>
       <c r="G37" s="32"/>
       <c r="H37" s="33"/>
@@ -2446,13 +2452,13 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="72"/>
-      <c r="E38" s="57" t="str">
+      <c r="E38" s="57">
         <f>E9</f>
-        <v>Completar</v>
-      </c>
-      <c r="F38" s="58" t="str">
+        <v>2.6388888888888795E-2</v>
+      </c>
+      <c r="F38" s="58">
         <f>IF(E38="Completar",E38,IFERROR(E38/$E$43,"Error"))</f>
-        <v>Completar</v>
+        <v>0.36538461538461425</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="33"/>
@@ -2469,13 +2475,13 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="72"/>
-      <c r="E39" s="57" t="str">
+      <c r="E39" s="57">
         <f>E13</f>
-        <v>Completar</v>
-      </c>
-      <c r="F39" s="58" t="str">
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="F39" s="58">
         <f t="shared" ref="F39" si="3">IF(E39="Completar",E39,IFERROR(E39/$E$43,"Error"))</f>
-        <v>Completar</v>
+        <v>0.5769230769230782</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="33"/>
@@ -2563,7 +2569,7 @@
       <c r="D43" s="78"/>
       <c r="E43" s="73">
         <f>IF(COUNTIF(E37:E42,"Error")&gt;0,"Error",IF(SUM(E37:E42)=0,"Completar",SUM(E37:E42)))</f>
-        <v>8.3333333333333037E-3</v>
+        <v>7.2222222222222188E-2</v>
       </c>
       <c r="F43" s="74"/>
       <c r="G43" s="35"/>
